--- a/Excel/Day_1/First_1.xlsx
+++ b/Excel/Day_1/First_1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Professionals\Excel\Day_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C63732-5C62-4612-B7FC-09BA5526EC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8672E5D-C8EF-481F-A351-830226ED3AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2AC4896-7FE0-486A-BE0C-794F95321E0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Class 9" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
     <sheet name="Class 10" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Roll Number</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>Char</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Decimals</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>"96"</t>
+  </si>
+  <si>
+    <t>Cell</t>
   </si>
 </sst>
 </file>
@@ -185,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -193,11 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,16 +537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141699FA-F104-42D1-95C4-80327CF02491}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
@@ -531,9 +555,10 @@
     <col min="9" max="9" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -568,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -607,8 +632,14 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -637,15 +668,15 @@
         <v>96</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J5" si="0">D3+E3+F3+G3+I3</f>
+        <f>D3+E3+F3+G3+I3</f>
         <v>461</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K5" si="1">(J3/500)*100</f>
+        <f t="shared" ref="K3:K5" si="0">(J3/500)*100</f>
         <v>92.2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -674,15 +705,15 @@
         <v>67</v>
       </c>
       <c r="J4" s="4">
+        <f t="shared" ref="J3:J5" si="1">D4+E4+F4+G4+I4</f>
+        <v>365</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -711,34 +742,58 @@
         <v>67</v>
       </c>
       <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7">
         <f>11 + 2</f>
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
